--- a/Big Tech/Netflix.xlsx
+++ b/Big Tech/Netflix.xlsx
@@ -5,29 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B035AA-14EC-124E-9583-937E18D0CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E958A-DDB1-EB4C-9A52-D460B9AC2D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'Sheet 1'!$B$3:$X$3</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'Sheet 1'!$A$106</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'Sheet 1'!$A$19</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'Sheet 1'!$A$3</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">'Sheet 1'!$B$106:$X$106</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">'Sheet 1'!$B$19:$X$19</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -45,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="2"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="834" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -328,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Netflix</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -871,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -935,18 +956,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -956,13 +965,7 @@
     </xf>
     <xf numFmtId="10" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="39" fontId="11" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="12" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="10" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="16" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -984,12 +987,6 @@
     <xf numFmtId="10" fontId="1" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1001,10 +998,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,6 +1005,27 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2248,6 +2262,446 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1ygoc&amp;q=XNAS%3aNFLX&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>NETFLIX, INC. (XNAS:NFLX)</v>
+    <v>2</v>
+    <v>3</v>
+    <v>Finance</v>
+    <v>4</v>
+    <v>en-US</v>
+    <v>a1ygoc</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>396.02</v>
+    <v>162.71</v>
+    <v>1.2727999999999999</v>
+    <v>7.05</v>
+    <v>2.0830999999999999E-2</v>
+    <v>0.32</v>
+    <v>9.2619999999999996E-4</v>
+    <v>USD</v>
+    <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
+    <v>12800</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
+    <v>345.84</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.999988078125</v>
+    <v>0</v>
+    <v>337.20010000000002</v>
+    <v>153858400000</v>
+    <v>NETFLIX, INC.</v>
+    <v>NETFLIX, INC.</v>
+    <v>340.05</v>
+    <v>37.036700000000003</v>
+    <v>338.43</v>
+    <v>345.48</v>
+    <v>345.8</v>
+    <v>445346800</v>
+    <v>NFLX</v>
+    <v>NETFLIX, INC. (XNAS:NFLX)</v>
+    <v>5610161</v>
+    <v>6745028</v>
+    <v>1997</v>
+  </rv>
+  <rv s="2">
+    <v>1</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="3">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="45">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="5">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>4</v>
+      <v>5</v>
+      <v>6</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>4</v>
+      <v>7</v>
+      <v>8</v>
+      <v>9</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+    </spb>
+    <spb s="4">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="5">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2548,10 +3002,10 @@
   <dimension ref="A1:AG118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W117" sqref="W117"/>
+      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2562,8 +3016,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>2000</v>
@@ -2828,21 +3282,21 @@
         <v>47000000000</v>
       </c>
       <c r="AD3" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE3" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="AE3" s="19" t="s">
+      <c r="AF3" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="AF3" s="19" t="s">
+      <c r="AG3" s="19" t="s">
         <v>112</v>
-      </c>
-      <c r="AG3" s="19" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3118,16 +3572,16 @@
         <v>12447265000</v>
       </c>
       <c r="AD6" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AE6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" s="19" t="s">
+      <c r="AF6" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="AF6" s="19" t="s">
+      <c r="AG6" s="19" t="s">
         <v>116</v>
-      </c>
-      <c r="AG6" s="19" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -3296,7 +3750,7 @@
     </row>
     <row r="9" spans="1:33" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15">
         <f>B8/B3</f>
@@ -3391,16 +3845,16 @@
         <v>8.5750239992661834E-2</v>
       </c>
       <c r="AD9" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE9" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="AE9" s="19" t="s">
+      <c r="AF9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="AF9" s="19" t="s">
+      <c r="AG9" s="19" t="s">
         <v>99</v>
-      </c>
-      <c r="AG9" s="19" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -3641,21 +4095,21 @@
         <v>4103393000</v>
       </c>
       <c r="AD12" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="AE12" s="19" t="s">
+      <c r="AF12" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="AF12" s="19" t="s">
+      <c r="AG12" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="AG12" s="19" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:33" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -3914,16 +4368,16 @@
         <v>6814434000</v>
       </c>
       <c r="AD15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE15" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="AE15" s="19" t="s">
+      <c r="AF15" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="AF15" s="19" t="s">
+      <c r="AG15" s="19" t="s">
         <v>124</v>
-      </c>
-      <c r="AG15" s="19" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:33" ht="19" x14ac:dyDescent="0.25">
@@ -4005,15 +4459,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>4.3322515344506103</v>
+        <v>4.866541939014188</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>30.491725817266722</v>
+        <v>34.252226885405896</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>84.624124513137858</v>
+        <v>95.060697127266252</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4164,7 +4618,7 @@
         <v>14362814000</v>
       </c>
       <c r="AD18" s="18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -4247,7 +4701,7 @@
     </row>
     <row r="20" spans="1:30" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -4933,7 +5387,7 @@
     </row>
     <row r="29" spans="1:30" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -5397,7 +5851,7 @@
     </row>
     <row r="35" spans="1:24" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" s="1"/>
       <c r="C35" s="22">
@@ -8747,7 +9201,7 @@
     </row>
     <row r="80" spans="1:24" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:X80" si="6">B79/B3</f>
@@ -9063,10 +9517,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="AF83" s="34"/>
+      <c r="AE83" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="AF83" s="57"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9141,10 +9595,10 @@
       <c r="X84" s="1">
         <v>-158543000</v>
       </c>
-      <c r="AE84" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF84" s="36"/>
+      <c r="AE84" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF84" s="59"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -9220,7 +9674,7 @@
         <v>-190197000</v>
       </c>
       <c r="AE85" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF85" s="24">
         <f>X17</f>
@@ -9301,7 +9755,7 @@
         <v>-16479296000</v>
       </c>
       <c r="AE86" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AF86" s="24">
         <f>X56</f>
@@ -9382,7 +9836,7 @@
         <v>2026257000</v>
       </c>
       <c r="AE87" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AF87" s="24">
         <f>X61</f>
@@ -9462,17 +9916,17 @@
       <c r="X88" s="1">
         <v>-407729000</v>
       </c>
-      <c r="AE88" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF88" s="38">
+      <c r="AE88" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF88" s="34">
         <f>AF85/(AF86+AF87)</f>
         <v>4.9202832897979498E-2</v>
       </c>
     </row>
     <row r="89" spans="1:32" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:X89" si="7">(-1*B88)/B3</f>
@@ -9567,7 +10021,7 @@
         <v>1.2896470249608183E-2</v>
       </c>
       <c r="AE89" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="AF89" s="24">
         <f>X27</f>
@@ -9728,10 +10182,10 @@
       <c r="X91" s="1">
         <v>-911276000</v>
       </c>
-      <c r="AE91" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF91" s="38">
+      <c r="AE91" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="AF91" s="34">
         <f>AF89/AF90</f>
         <v>0.14665946292208729</v>
       </c>
@@ -9809,10 +10263,10 @@
       <c r="X92" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE92" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="AF92" s="40">
+      <c r="AE92" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF92" s="36">
         <f>AF88*(1-AF91)</f>
         <v>4.1986771850916614E-2</v>
       </c>
@@ -9890,10 +10344,10 @@
       <c r="X93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE93" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF93" s="36"/>
+      <c r="AE93" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="AF93" s="59"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -9969,9 +10423,9 @@
         <v>-2076392000</v>
       </c>
       <c r="AE94" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF94" s="41">
+        <v>135</v>
+      </c>
+      <c r="AF94" s="37">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -10048,11 +10502,12 @@
       <c r="X95" s="1">
         <v>-700000000</v>
       </c>
-      <c r="AE95" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="AF95" s="43">
-        <v>1.26</v>
+      <c r="AE95" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF95" s="63" cm="1">
+        <f t="array" ref="AF95">_FV(A1,"Beta")</f>
+        <v>1.2727999999999999</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10129,9 +10584,9 @@
         <v>35746000</v>
       </c>
       <c r="AE96" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF96" s="41">
+        <v>137</v>
+      </c>
+      <c r="AF96" s="37">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -10208,12 +10663,12 @@
       <c r="X97" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE97" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF97" s="40">
+      <c r="AE97" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.5193E-2</v>
+        <v>9.5744040000000002E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10289,10 +10744,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="35" t="s">
-        <v>140</v>
-      </c>
-      <c r="AF98" s="36"/>
+      <c r="AE98" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF98" s="59"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10368,7 +10823,7 @@
         <v>92</v>
       </c>
       <c r="AE99" s="23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF99" s="24">
         <f>AF86+AF87</f>
@@ -10448,12 +10903,12 @@
       <c r="X100" s="10">
         <v>-664254000</v>
       </c>
-      <c r="AE100" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="AF100" s="38">
+      <c r="AE100" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>9.4852727959065131E-2</v>
+        <v>8.5327567068016211E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10529,12 +10984,12 @@
       <c r="X101" s="1">
         <v>-170140000</v>
       </c>
-      <c r="AE101" s="42" t="s">
-        <v>143</v>
-      </c>
-      <c r="AF101" s="44">
-        <f>Z116*X34</f>
-        <v>136966515000</v>
+      <c r="AE101" s="23" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF101" s="49" cm="1">
+        <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
+        <v>153858400000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10610,12 +11065,12 @@
       <c r="X102" s="10">
         <v>-884529000</v>
       </c>
-      <c r="AE102" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="AF102" s="38">
+      <c r="AE102" s="33" t="s">
+        <v>143</v>
+      </c>
+      <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.90514727204093492</v>
+        <v>0.91467243293198375</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10691,12 +11146,12 @@
       <c r="X103" s="1">
         <v>6055111000</v>
       </c>
-      <c r="AE103" s="39" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF103" s="45">
+      <c r="AE103" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>151319591000</v>
+        <v>168211476000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10772,14 +11227,14 @@
       <c r="X104" s="11">
         <v>5170582000</v>
       </c>
-      <c r="AE104" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="AF104" s="36"/>
+      <c r="AE104" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF104" s="59"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -10877,11 +11332,11 @@
       <c r="AC105" s="15"/>
       <c r="AD105" s="15"/>
       <c r="AE105" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.0146244115647048E-2</v>
+        <v>9.1157063096615754E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10957,33 +11412,33 @@
       <c r="X106" s="1">
         <v>1618528000</v>
       </c>
-      <c r="Y106" s="46">
+      <c r="Y106" s="62">
         <f>X106*(1+$AF$106)</f>
         <v>1752231946.7040081</v>
       </c>
-      <c r="Z106" s="46">
+      <c r="Z106" s="62">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>1896980957.4194069</v>
       </c>
-      <c r="AA106" s="46">
+      <c r="AA106" s="62">
         <f t="shared" si="9"/>
         <v>2053687446.7908125</v>
       </c>
-      <c r="AB106" s="46">
+      <c r="AB106" s="62">
         <f t="shared" si="9"/>
         <v>2223339202.5419698</v>
       </c>
-      <c r="AC106" s="46">
+      <c r="AC106" s="62">
         <f t="shared" si="9"/>
         <v>2407005611.9223471</v>
       </c>
-      <c r="AD106" s="47" t="s">
+      <c r="AD106" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE106" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="AE106" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF106" s="49">
+      <c r="AF106" s="41">
         <f>(SUM(Y4:AC4)/5)</f>
         <v>8.2608361859669938E-2</v>
       </c>
@@ -11013,150 +11468,151 @@
       <c r="V107" s="13"/>
       <c r="W107" s="13"/>
       <c r="X107" s="13"/>
-      <c r="Y107" s="47"/>
-      <c r="Z107" s="47"/>
-      <c r="AA107" s="47"/>
-      <c r="AB107" s="47"/>
-      <c r="AC107" s="50">
+      <c r="Y107" s="39"/>
+      <c r="Z107" s="39"/>
+      <c r="AA107" s="39"/>
+      <c r="AB107" s="39"/>
+      <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>37871419691.374504</v>
-      </c>
-      <c r="AD107" s="51" t="s">
+        <v>37292779285.219109</v>
+      </c>
+      <c r="AD107" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="AE107" s="44" t="s">
         <v>149</v>
       </c>
-      <c r="AE107" s="52" t="s">
-        <v>150</v>
-      </c>
-      <c r="AF107" s="53">
+      <c r="AF107" s="45">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y108" s="50">
+      <c r="Y108" s="42">
         <f t="shared" ref="Y108:AA108" si="10">Y107+Y106</f>
         <v>1752231946.7040081</v>
       </c>
-      <c r="Z108" s="50">
+      <c r="Z108" s="42">
         <f t="shared" si="10"/>
         <v>1896980957.4194069</v>
       </c>
-      <c r="AA108" s="50">
+      <c r="AA108" s="42">
         <f t="shared" si="10"/>
         <v>2053687446.7908125</v>
       </c>
-      <c r="AB108" s="50">
+      <c r="AB108" s="42">
         <f>AB107+AB106</f>
         <v>2223339202.5419698</v>
       </c>
-      <c r="AC108" s="50">
+      <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>40278425303.296852</v>
-      </c>
-      <c r="AD108" s="51" t="s">
-        <v>145</v>
-      </c>
-      <c r="AE108" s="54" t="s">
+        <v>39699784897.141457</v>
+      </c>
+      <c r="AD108" s="43" t="s">
+        <v>144</v>
+      </c>
+      <c r="AE108" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="AF108" s="47">
+        <f>AF105</f>
+        <v>9.1157063096615754E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="Y109" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="AF108" s="55">
-        <f>AF105</f>
-        <v>9.0146244115647048E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="56" t="s">
+      <c r="Z109" s="61"/>
+    </row>
+    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y110" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="Z109" s="57"/>
-    </row>
-    <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y110" s="58" t="s">
+      <c r="Z110" s="49">
+        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
+        <v>32013920639.516552</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y111" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="Z110" s="59">
-        <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>32523627415.804592</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y111" s="58" t="s">
-        <v>154</v>
-      </c>
-      <c r="Z111" s="59">
+      <c r="Z111" s="49">
         <f>X40</f>
         <v>6058452000</v>
       </c>
     </row>
     <row r="112" spans="1:32" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y112" s="58" t="s">
-        <v>141</v>
-      </c>
-      <c r="Z112" s="59">
+      <c r="Y112" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z112" s="49">
         <f>AF99</f>
         <v>14353076000</v>
       </c>
     </row>
     <row r="113" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y113" s="58" t="s">
+      <c r="Y113" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z113" s="49">
+        <f>Z110+Z111-Z112</f>
+        <v>23719296639.516556</v>
+      </c>
+    </row>
+    <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y114" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="Z113" s="59">
-        <f>Z110+Z111-Z112</f>
-        <v>24229003415.804596</v>
-      </c>
-    </row>
-    <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y114" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="Z114" s="60">
+      <c r="Z114" s="50">
         <f>X34*(1+(5*AD16))</f>
         <v>455826608.70267093</v>
       </c>
     </row>
     <row r="115" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y115" s="61" t="s">
+      <c r="Y115" s="51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z115" s="52">
+        <f>Z113/Z114</f>
+        <v>52.035787702310962</v>
+      </c>
+    </row>
+    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Z115" s="62">
-        <f>Z113/Z114</f>
-        <v>53.153990910628963</v>
-      </c>
-    </row>
-    <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y116" s="63" t="s">
+      <c r="Z116" s="64" cm="1">
+        <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>345.8</v>
+      </c>
+    </row>
+    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y117" s="53" t="s">
         <v>158</v>
       </c>
-      <c r="Z116" s="64">
-        <v>303.5</v>
-      </c>
-    </row>
-    <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="65" t="s">
+      <c r="Z117" s="54">
+        <f>Z115/Z116-1</f>
+        <v>-0.84952056766248996</v>
+      </c>
+    </row>
+    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
+      <c r="Y118" s="53" t="s">
         <v>159</v>
       </c>
-      <c r="Z117" s="66">
-        <f>Z115/Z116-1</f>
-        <v>-0.82486329189249108</v>
-      </c>
-    </row>
-    <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="65" t="s">
-        <v>160</v>
-      </c>
-      <c r="Z118" s="67" t="str">
+      <c r="Z118" s="55" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="Y109:Z109"/>
     <mergeCell ref="AE83:AF83"/>
     <mergeCell ref="AE84:AF84"/>
     <mergeCell ref="AE93:AF93"/>
     <mergeCell ref="AE98:AF98"/>
     <mergeCell ref="AE104:AF104"/>
-    <mergeCell ref="Y109:Z109"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" tooltip="https://roic.ai/company/NFLX" display="ROIC.AI | NFLX" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/Big Tech/Netflix.xlsx
+++ b/Big Tech/Netflix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098E958A-DDB1-EB4C-9A52-D460B9AC2D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0849CC4E-65C5-DF48-BC06-673B278A3160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -997,13 +998,21 @@
     <xf numFmtId="164" fontId="1" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="12" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,15 +1026,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="39" fontId="11" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2382,13 +2383,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>396.02</v>
+    <v>379.43009999999998</v>
     <v>162.71</v>
-    <v>1.2727999999999999</v>
-    <v>7.05</v>
-    <v>2.0830999999999999E-2</v>
-    <v>0.32</v>
-    <v>9.2619999999999996E-4</v>
+    <v>1.2756000000000001</v>
+    <v>-3.02</v>
+    <v>-8.8210000000000007E-3</v>
+    <v>-0.57999999999999996</v>
+    <v>-1.709E-3</v>
     <v>USD</v>
     <v>Netflix, Inc. is an entertainment services company. The Company has paid memberships in over 190 countries with television (TV) series, films and games across a variety of genres and languages. Its members can play, pause and resume to watch, as much as they want, anytime, anywhere, and can change their plans at any time. It offers a variety of streaming membership plans, the price of which varies by country, and the features of the plan. The pricing of its plans ranges from United States dollar equivalent of approximately $1 to $26 per month. It offers members the ability to receive streaming content through a host of Internet-connected devices, including TVs, digital video players, TV set-top boxes, and mobile devices. The Company has agreements with various cable, satellite and telecommunications operators to make its service available through the TV set-top boxes of these service providers. The Company acquires, licenses, and produces content, including original programming.</v>
     <v>12800</v>
@@ -2396,25 +2397,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>121 Albright Way, LOS GATOS, CA, 95032 US</v>
-    <v>345.84</v>
+    <v>340.48</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.999988078125</v>
+    <v>45022.999981191409</v>
     <v>0</v>
-    <v>337.20010000000002</v>
-    <v>153858400000</v>
+    <v>332.63</v>
+    <v>151119500000</v>
     <v>NETFLIX, INC.</v>
     <v>NETFLIX, INC.</v>
-    <v>340.05</v>
-    <v>37.036700000000003</v>
-    <v>338.43</v>
-    <v>345.48</v>
-    <v>345.8</v>
+    <v>339.34</v>
+    <v>37.465699999999998</v>
+    <v>342.35</v>
+    <v>339.33</v>
+    <v>338.75</v>
     <v>445346800</v>
     <v>NFLX</v>
     <v>NETFLIX, INC. (XNAS:NFLX)</v>
-    <v>5610161</v>
-    <v>6745028</v>
+    <v>4660542</v>
+    <v>6583698</v>
     <v>1997</v>
   </rv>
   <rv s="2">
@@ -3005,7 +3006,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y100" sqref="Y100"/>
+      <selection pane="bottomRight" activeCell="Z115" sqref="Z115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4459,15 +4460,15 @@
       </c>
       <c r="AE16" s="30">
         <f>AF101/X3</f>
-        <v>4.866541939014188</v>
+        <v>4.7799105187162647</v>
       </c>
       <c r="AF16" s="30">
         <f>AF101/X28</f>
-        <v>34.252226885405896</v>
+        <v>33.642488163201335</v>
       </c>
       <c r="AG16" s="31">
         <f>AF101/X106</f>
-        <v>95.060697127266252</v>
+        <v>93.368480495857966</v>
       </c>
     </row>
     <row r="17" spans="1:30" ht="19" x14ac:dyDescent="0.25">
@@ -9517,10 +9518,10 @@
       <c r="X83" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE83" s="56" t="s">
+      <c r="AE83" s="60" t="s">
         <v>126</v>
       </c>
-      <c r="AF83" s="57"/>
+      <c r="AF83" s="61"/>
     </row>
     <row r="84" spans="1:32" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9595,10 +9596,10 @@
       <c r="X84" s="1">
         <v>-158543000</v>
       </c>
-      <c r="AE84" s="58" t="s">
+      <c r="AE84" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AF84" s="59"/>
+      <c r="AF84" s="63"/>
     </row>
     <row r="85" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10344,10 +10345,10 @@
       <c r="X93" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE93" s="58" t="s">
+      <c r="AE93" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="AF93" s="59"/>
+      <c r="AF93" s="63"/>
     </row>
     <row r="94" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10505,9 +10506,9 @@
       <c r="AE95" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="AF95" s="63" cm="1">
+      <c r="AF95" s="56" cm="1">
         <f t="array" ref="AF95">_FV(A1,"Beta")</f>
-        <v>1.2727999999999999</v>
+        <v>1.2756000000000001</v>
       </c>
     </row>
     <row r="96" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10668,7 +10669,7 @@
       </c>
       <c r="AF97" s="36">
         <f>(AF94)+((AF95)*(AF96-AF94))</f>
-        <v>9.5744040000000002E-2</v>
+        <v>9.5864580000000005E-2</v>
       </c>
     </row>
     <row r="98" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -10744,10 +10745,10 @@
       <c r="X98" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AE98" s="58" t="s">
+      <c r="AE98" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="AF98" s="59"/>
+      <c r="AF98" s="63"/>
     </row>
     <row r="99" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10908,7 +10909,7 @@
       </c>
       <c r="AF100" s="34">
         <f>AF99/AF103</f>
-        <v>8.5327567068016211E-2</v>
+        <v>8.6739907886609555E-2</v>
       </c>
     </row>
     <row r="101" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -10989,7 +10990,7 @@
       </c>
       <c r="AF101" s="49" cm="1">
         <f t="array" ref="AF101">_FV(A1,"Market cap",TRUE)</f>
-        <v>153858400000</v>
+        <v>151119500000</v>
       </c>
     </row>
     <row r="102" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11070,7 +11071,7 @@
       </c>
       <c r="AF102" s="34">
         <f>AF101/AF103</f>
-        <v>0.91467243293198375</v>
+        <v>0.91326009211339043</v>
       </c>
     </row>
     <row r="103" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11151,7 +11152,7 @@
       </c>
       <c r="AF103" s="38">
         <f>AF99+AF101</f>
-        <v>168211476000</v>
+        <v>165472576000</v>
       </c>
     </row>
     <row r="104" spans="1:32" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11227,10 +11228,10 @@
       <c r="X104" s="11">
         <v>5170582000</v>
       </c>
-      <c r="AE104" s="58" t="s">
+      <c r="AE104" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="AF104" s="59"/>
+      <c r="AF104" s="63"/>
     </row>
     <row r="105" spans="1:32" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -11336,7 +11337,7 @@
       </c>
       <c r="AF105" s="26">
         <f>(AF100*AF92)+(AF102*AF97)</f>
-        <v>9.1157063096615754E-2</v>
+        <v>9.1191223884016084E-2</v>
       </c>
     </row>
     <row r="106" spans="1:32" ht="19" x14ac:dyDescent="0.25">
@@ -11412,23 +11413,23 @@
       <c r="X106" s="1">
         <v>1618528000</v>
       </c>
-      <c r="Y106" s="62">
+      <c r="Y106" s="55">
         <f>X106*(1+$AF$106)</f>
         <v>1752231946.7040081</v>
       </c>
-      <c r="Z106" s="62">
+      <c r="Z106" s="55">
         <f t="shared" ref="Z106:AC106" si="9">Y106*(1+$AF$106)</f>
         <v>1896980957.4194069</v>
       </c>
-      <c r="AA106" s="62">
+      <c r="AA106" s="55">
         <f t="shared" si="9"/>
         <v>2053687446.7908125</v>
       </c>
-      <c r="AB106" s="62">
+      <c r="AB106" s="55">
         <f t="shared" si="9"/>
         <v>2223339202.5419698</v>
       </c>
-      <c r="AC106" s="62">
+      <c r="AC106" s="55">
         <f t="shared" si="9"/>
         <v>2407005611.9223471</v>
       </c>
@@ -11474,7 +11475,7 @@
       <c r="AB107" s="39"/>
       <c r="AC107" s="42">
         <f>AC106*(1+AF107)/(AF108-AF107)</f>
-        <v>37292779285.219109</v>
+        <v>37273532765.363823</v>
       </c>
       <c r="AD107" s="43" t="s">
         <v>148</v>
@@ -11505,7 +11506,7 @@
       </c>
       <c r="AC108" s="42">
         <f>AC107+AC106</f>
-        <v>39699784897.141457</v>
+        <v>39680538377.286171</v>
       </c>
       <c r="AD108" s="43" t="s">
         <v>144</v>
@@ -11515,14 +11516,14 @@
       </c>
       <c r="AF108" s="47">
         <f>AF105</f>
-        <v>9.1157063096615754E-2</v>
+        <v>9.1191223884016084E-2</v>
       </c>
     </row>
     <row r="109" spans="1:32" ht="19" x14ac:dyDescent="0.25">
-      <c r="Y109" s="60" t="s">
+      <c r="Y109" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="Z109" s="61"/>
+      <c r="Z109" s="59"/>
     </row>
     <row r="110" spans="1:32" ht="20" x14ac:dyDescent="0.25">
       <c r="Y110" s="48" t="s">
@@ -11530,7 +11531,7 @@
       </c>
       <c r="Z110" s="49">
         <f>NPV(AF108,Y108,Z108,AA108,AB108,AC108)</f>
-        <v>32013920639.516552</v>
+        <v>31996967788.846783</v>
       </c>
     </row>
     <row r="111" spans="1:32" ht="20" x14ac:dyDescent="0.25">
@@ -11557,7 +11558,7 @@
       </c>
       <c r="Z113" s="49">
         <f>Z110+Z111-Z112</f>
-        <v>23719296639.516556</v>
+        <v>23702343788.846786</v>
       </c>
     </row>
     <row r="114" spans="25:26" ht="20" x14ac:dyDescent="0.25">
@@ -11573,34 +11574,34 @@
       <c r="Y115" s="51" t="s">
         <v>156</v>
       </c>
-      <c r="Z115" s="52">
+      <c r="Z115" s="64">
         <f>Z113/Z114</f>
-        <v>52.035787702310962</v>
+        <v>51.998596256383706</v>
       </c>
     </row>
     <row r="116" spans="25:26" ht="20" x14ac:dyDescent="0.25">
       <c r="Y116" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="Z116" s="64" cm="1">
+      <c r="Z116" s="57" cm="1">
         <f t="array" ref="Z116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>345.8</v>
+        <v>338.75</v>
       </c>
     </row>
     <row r="117" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y117" s="53" t="s">
+      <c r="Y117" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="Z117" s="54">
+      <c r="Z117" s="53">
         <f>Z115/Z116-1</f>
-        <v>-0.84952056766248996</v>
+        <v>-0.8464986088372437</v>
       </c>
     </row>
     <row r="118" spans="25:26" ht="20" x14ac:dyDescent="0.25">
-      <c r="Y118" s="53" t="s">
+      <c r="Y118" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="Z118" s="55" t="str">
+      <c r="Z118" s="54" t="str">
         <f>IF(Z115&gt;Z116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
